--- a/smeta_01.11.2024.xlsx
+++ b/smeta_01.11.2024.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Работы по содержанию помещений общего пользования,входящих в состав общего имуществ</t>
+    <t xml:space="preserve">Cодержание помещений общего пользования</t>
   </si>
   <si>
     <t xml:space="preserve">Уборка мест общего пользования</t>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">Дератизация и дезинсекция</t>
   </si>
   <si>
-    <t xml:space="preserve">Надлежащие содержание и ремонт конструкций, оборудования и систем, являющихся общим имуществом МКД</t>
+    <t xml:space="preserve">Содержание и ремонт конструкций, оборудования и систем</t>
   </si>
   <si>
     <t xml:space="preserve">Услуги по содержанию и ремонту МКД (оплата труда)</t>
   </si>
   <si>
-    <t xml:space="preserve">Работы, необходимые для надлежащего содержания и ремонта несущих конструкций (фундаментов, стенн, колонн истолбов, перкрытий и покрытий, балок, ригелей, лестниц, несущих элементов крыш) и ненесущих конструкций (перегородок, внутренней отделки, полов) МКД</t>
+    <t xml:space="preserve">Содержание и ремонта несущих конструкций и ненесущих конструкций</t>
   </si>
   <si>
     <t xml:space="preserve">Работы, выполняемые в отношении всех видов фундаментов</t>
@@ -88,28 +88,28 @@
     <t xml:space="preserve">Непредвиденные работы</t>
   </si>
   <si>
-    <t xml:space="preserve">Работы по содержанию и ремонту обрудования, систем инженерно- технического обеспечения, входящих в состав общего имущества:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Системы холодного водоснабжения: водопроводный ввод от стены зданиия до общедомового узла учета,трубопроводы с запорно-регулировочной арматурой, стояки с запроно-регулировочной арматурой, квартирная разводка до водозаборной арматуры, включая вентили</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Системы горячего водоснабжения:трубопроводы (прямой и циркулярный), разводка по подвалу или чердаку с запорно-регулировочной арматурой, стояки с запорно-регулировочной арматурой, квартирная разводка до водозаборной арматуры, включая вентили</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Системы канализации: канализационный выпуск из дома до первого колодца, трубопроводы с прочистками и трапами, канализационные стояки с ревизками и вентиляционной вытяжкой, ликвидация засоров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Системы отопления от индивидуального теплового пункта: трубопроводы отопления, разводка трубопроводов с запорно-регулировочной арматурой и спускниками; стояки с запорно-регулировочной арматурой, с выполнением наладочных и регулировочных работ, ликвидацией непрогревов и неисправностей в квартирах и местах общего пользования, промывка, опрессовка, регулировка и наладка систем отопления</t>
+    <t xml:space="preserve">Содержание и ремонт обрудования, систем инженерно-технического обеспечения, входящих в состав общего имущества</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Системы холодного водоснабжения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Системы горячего водоснабжения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Системы канализации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Системы отопления от индивидуального теплового пункта</t>
   </si>
   <si>
     <t xml:space="preserve">Системы электроснабжения, освещение помещений общего пользования, включая электротехнические устройства МКД</t>
   </si>
   <si>
-    <t xml:space="preserve">Системы дымоудаления (ДУ) и противопожарной автоматики (ППА), входящих в состав общего имущества многоквартирных домов и домовладений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лифтов, входящих в состав общего имущества многоквартирных домов и домовладений</t>
+    <t xml:space="preserve">Системы дымоудаления и противопожарной автоматики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лифтов</t>
   </si>
   <si>
     <t xml:space="preserve">Техническое обслуживание лифтов</t>
@@ -124,16 +124,16 @@
     <t xml:space="preserve">Техническое освидетельствоание лифтов</t>
   </si>
   <si>
-    <t xml:space="preserve">Индивидуального теплового пункта (ИТП) МКД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Насосного оборудования МКД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Системы вентиляции и дымоходов МКД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнение работ по аварийно-диспетчерскому обслуживанию систем инженерного оборудования, входящего в состав общего имущества многоквартирных домов и домовладений</t>
+    <t xml:space="preserve">Индивидуального теплового пункта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Насосного оборудования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Системы вентиляции и дымоходов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аварийно-диспетчерское обслуживание систем инженерного оборудования</t>
   </si>
   <si>
     <t xml:space="preserve">Заработная плата с начислениями аварийной бригады</t>
@@ -154,16 +154,16 @@
     <t xml:space="preserve">Накладные расходы, обучение диспетчеров</t>
   </si>
   <si>
-    <t xml:space="preserve">Выполнение работ по вывозу и утилизации твердых коммунальных отходов и крупногабаритных коммунальных отходов (ТКО и КГО) от жилых помещений МКД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расходы, связанные с организацией работ по управлению многоквартирным домом</t>
+    <t xml:space="preserve">Вывоз и утилизации твердых коммунальных отходов и крупногабаритных коммунальных отходов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Организация работ по управлению МКД</t>
   </si>
   <si>
     <t xml:space="preserve">Расходы АУП (з/п с начислениями)</t>
   </si>
   <si>
-    <t xml:space="preserve">Прочие расходы АУП (канцелярские и хозяйственные товары; обслуживание и закупка оргтехники; услуги связи; программное сопровождение; почтовые расходы; аренда помещений; комиссия банка; госпошлины и тд.)</t>
+    <t xml:space="preserve">Прочие расходы АУП</t>
   </si>
   <si>
     <t xml:space="preserve">Расходы АУП на МКД, управляющий (з/п с начислениями)</t>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Рентабельность 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">Работы по содержанию и благоустройству придомовой территории</t>
+    <t xml:space="preserve">Содержание и благоустройству придомовой территории</t>
   </si>
   <si>
     <t xml:space="preserve">Услуги профессиональной уборке прилегающей территории</t>
@@ -211,13 +211,13 @@
     <t xml:space="preserve">Обслуживание системы видеонаблюдения</t>
   </si>
   <si>
-    <t xml:space="preserve">Обслуживание системы контроля и управления доступом (СКУД)</t>
+    <t xml:space="preserve">Обслуживание системы контроля и управления доступом</t>
   </si>
   <si>
     <t xml:space="preserve">Содержание и текущий ремонт автоматических ворот и шлагбаума</t>
   </si>
   <si>
-    <t xml:space="preserve">Уборка нежилого помещения (машиноместо) собственников МКД</t>
+    <t xml:space="preserve">Уборка нежилого помещения (машиномест)</t>
   </si>
 </sst>
 </file>
@@ -232,6 +232,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -291,8 +292,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,674 +432,674 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>4153808.9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>64797.06</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>3928843.93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>35012.72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>440000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>98000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>456020.34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>85012.72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>256020.34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>24005.09</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>163022.89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>360053.4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>103910.17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>74508.9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>78010.17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>68206.61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>151818.82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>152519.07</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>1020000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>660000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>2442.86</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="0" t="s">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>36000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>212647.8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>77000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>948911.8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>2071400.25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>72069.49</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>770000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>2310279.51</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>133488.48</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>1259271.35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>21519.69</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>1024930.04</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>4032812.88</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>36000</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>899999</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>360016.83</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>3840000</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>16017.06</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>269921.19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>36000</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>102000</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>65000</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>14210</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>590388.24</v>
       </c>
     </row>

--- a/smeta_01.11.2024.xlsx
+++ b/smeta_01.11.2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
   <si>
     <t xml:space="preserve">level_1</t>
   </si>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Непредвиденные работы</t>
   </si>
   <si>
-    <t xml:space="preserve">Содержание и ремонт обрудования, систем инженерно-технического обеспечения, входящих в состав общего имущества</t>
+    <t xml:space="preserve">Содержание и ремонт обрудования, систем инженерно-технического обеспечения</t>
   </si>
   <si>
     <t xml:space="preserve">Системы холодного водоснабжения</t>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">Накладные расходы АУП на МКД, управляющий (канцелярские и хозяйственные товары, услуги связи, обслуживание и закупка оргтехники и тд.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работы по обеспечению требований пожарной безопасности</t>
   </si>
   <si>
     <t xml:space="preserve">Рентабельность 5%</t>
@@ -424,16 +427,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D36" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="83.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="123.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="157.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,157 +955,165 @@
         <v>50</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>1024930.04</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E40" s="1" t="n">
-        <v>4032812.88</v>
+        <v>1024930.04</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>36000</v>
+        <v>4032812.88</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>70000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>899999</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>360016.83</v>
+        <v>899999</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E46" s="1" t="n">
-        <v>3840000</v>
+        <v>360016.83</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>16017.06</v>
+        <v>3840000</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>269921.19</v>
+        <v>16017.06</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>36000</v>
+        <v>269921.19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>102000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>65000</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>14210</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E53" s="1" t="n">
+        <v>14210</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="1" t="n">
         <v>590388.24</v>
       </c>
     </row>

--- a/smeta_01.11.2024.xlsx
+++ b/smeta_01.11.2024.xlsx
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Индивидуального теплового пункта</t>
   </si>
   <si>
-    <t xml:space="preserve">Насосного оборудования</t>
+    <t xml:space="preserve">Насосное оборудование</t>
   </si>
   <si>
     <t xml:space="preserve">Системы вентиляции и дымоходов</t>
@@ -429,17 +429,17 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D36" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="83.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="123.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="157.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="157.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/smeta_01.11.2024.xlsx
+++ b/smeta_01.11.2024.xlsx
@@ -55,10 +55,10 @@
     <t xml:space="preserve">Содержание и ремонта несущих конструкций и ненесущих конструкций</t>
   </si>
   <si>
-    <t xml:space="preserve">Работы, выполняемые в отношении всех видов фундаментов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Работы, выполняемые в целях надлежащего содержания кровель МКД</t>
+    <t xml:space="preserve">Содержание всех видов фундаментов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Содержание кровель МКД</t>
   </si>
   <si>
     <t xml:space="preserve">Очистка кровли от снега и наледи</t>
@@ -67,22 +67,22 @@
     <t xml:space="preserve">Частичный ремонт кровли и водосточной системы</t>
   </si>
   <si>
-    <t xml:space="preserve">Работы, выполняемые для надлежащего содержания стен и фасадов МКД (ремонт, промывка, окраска фасадов и цоколей и тд.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Работы, выполняемые в целях надлежащего содержания перекрытий, перегородок и покрытий МКД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Работы, выполняемые в целях надлежащего содержания внутренней отделки в подъездах, технических помещениях, и других помещениях общего пользования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Работы, выполняемые в целях надлежащего содержания полов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Работы, выполняемые в целях надлежащего содержания оконных и дверных заполнений на лестничных клетках и во вспомогательных помещениях общего пользования, входные двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Работы, выполняемые в целях надлежащего содержания лестниц, пандусов, крыльц, козырьков над входами в подъезды, балконов верхних этажей</t>
+    <t xml:space="preserve">Содержание стен и фасадов МКД (ремонт, промывка, окраска фасадов и цоколей и тд.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Содержание перекрытий, перегородок и покрытий МКД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Содержание внутренней отделки в подъездах, технических помещениях, и других помещениях общего пользования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Содержание полов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Содержание оконных и дверных заполнений на лестничных клетках и во вспомогательных помещениях общего пользования, входные двери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Содержание лестниц, пандусов, крыльц, козырьков над входами в подъезды, балконов верхних этажей</t>
   </si>
   <si>
     <t xml:space="preserve">Непредвиденные работы</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Системы дымоудаления и противопожарной автоматики</t>
   </si>
   <si>
-    <t xml:space="preserve">Лифтов</t>
+    <t xml:space="preserve">Лифты</t>
   </si>
   <si>
     <t xml:space="preserve">Техническое обслуживание лифтов</t>
@@ -429,17 +429,17 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="83.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="123.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="157.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="82.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="121.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="119.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
